--- a/data/trans_dic/P23_DUKE_AC_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P23_DUKE_AC_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe apoyo social confidencial bajo</t>
+          <t>Población que recibe apoyo social confidencial bajo (tasa de respuesta: 96,6%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,8%</t>
+          <t>77,55%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>72,18%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>66,35%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>68,33%</t>
+          <t>77,5%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>10,36%</t>
+          <t>86,35%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,93%</t>
+          <t>81,4%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>10,03%</t>
+          <t>71,67%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>65,02%</t>
+          <t>70,99%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>10,07%</t>
+          <t>70,39%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>76,73%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>77,09%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>66,78%</t>
+          <t>64,27%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>74,73%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>71,59%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>68,41%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>77,1%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>82,01%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>73,18%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,21; 16,72</t>
+          <t>69,38; 84,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,19; 13,39</t>
+          <t>63,53; 79,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,79; 9,27</t>
+          <t>57,01; 75,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>57,15; 76,85</t>
+          <t>68,06; 84,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,11; 16,85</t>
+          <t>78,93; 92,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,81; 15,12</t>
+          <t>71,08; 88,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,1; 15,8</t>
+          <t>64,33; 79,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>55,27; 72,95</t>
+          <t>63,41; 77,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,81; 14,12</t>
+          <t>62,3; 77,32</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,07; 12,67</t>
+          <t>68,63; 83,42</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,27; 9,93</t>
+          <t>68,37; 84,64</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>59,28; 72,92</t>
+          <t>54,82; 71,39</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>69,12; 79,1</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>66,22; 76,89</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>62,49; 74,1</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>71,15; 82,1</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>75,82; 86,51</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>67,16; 78,81</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,75%</t>
+          <t>72,54%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>76,53%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>14,7%</t>
+          <t>76,45%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>72,28%</t>
+          <t>71,41%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>13,76%</t>
+          <t>75,67%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>10,18%</t>
+          <t>74,1%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>12,08%</t>
+          <t>81,33%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>74,59%</t>
+          <t>85,2%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>12,71%</t>
+          <t>77,56%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>9,36%</t>
+          <t>78,57%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>13,47%</t>
+          <t>80,05%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>73,4%</t>
+          <t>80,09%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>76,71%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>80,75%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>76,97%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>74,75%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>77,79%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>77,04%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,24; 25,05</t>
+          <t>61,06; 80,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,26; 17,4</t>
+          <t>69,65; 82,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,56; 29,14</t>
+          <t>69,53; 82,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>60,8; 80,89</t>
+          <t>62,88; 80,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,43; 20,63</t>
+          <t>62,6; 84,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,71; 14,49</t>
+          <t>61,08; 82,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,01; 17,28</t>
+          <t>74,71; 87,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>66,87; 80,67</t>
+          <t>79,53; 89,91</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,13; 18,78</t>
+          <t>71,09; 82,65</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,45; 13,8</t>
+          <t>71,13; 84,49</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,16; 22,05</t>
+          <t>73,0; 85,53</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>66,11; 78,8</t>
+          <t>72,32; 86,09</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>70,39; 81,43</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>76,22; 84,52</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>72,35; 81,27</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>68,59; 80,05</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>69,89; 83,1</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>70,23; 82,57</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>18,92%</t>
+          <t>78,17%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>15,73%</t>
+          <t>85,14%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>19,3%</t>
+          <t>85,17%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>76,97%</t>
+          <t>76,82%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>13,85%</t>
+          <t>81,53%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>12,55%</t>
+          <t>87,17%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>17,2%</t>
+          <t>81,24%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>81,36%</t>
+          <t>86,97%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>16,34%</t>
+          <t>84,84%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>14,09%</t>
+          <t>82,3%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>18,2%</t>
+          <t>89,65%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>79,06%</t>
+          <t>82,46%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>79,75%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>86,09%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>85,0%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>79,65%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>85,39%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>84,95%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,48; 29,93</t>
+          <t>69,28; 84,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,67; 23,75</t>
+          <t>80,68; 89,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,19; 26,49</t>
+          <t>80,52; 89,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>70,58; 82,86</t>
+          <t>67,48; 84,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,31; 18,8</t>
+          <t>75,9; 86,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,54; 16,46</t>
+          <t>81,12; 91,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,65; 21,13</t>
+          <t>76,25; 85,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>76,16; 86,17</t>
+          <t>83,07; 90,72</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,84; 21,96</t>
+          <t>80,47; 88,13</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,06; 18,22</t>
+          <t>78,17; 86,04</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>15,1; 22,45</t>
+          <t>85,32; 93,18</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>74,88; 82,68</t>
+          <t>76,7; 87,45</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>74,74; 83,53</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>82,87; 88,6</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>81,8; 87,68</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>73,8; 83,48</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>81,01; 88,63</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>80,87; 88,23</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,29%</t>
+          <t>77,22%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>24,25%</t>
+          <t>83,21%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>22,64%</t>
+          <t>77,87%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>90,22%</t>
+          <t>86,24%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>18,03%</t>
+          <t>93,03%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,65%</t>
+          <t>88,43%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>21,6%</t>
+          <t>82,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>86,91%</t>
+          <t>88,17%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>17,2%</t>
+          <t>88,36%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>22,93%</t>
+          <t>88,39%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>22,1%</t>
+          <t>91,81%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>88,61%</t>
+          <t>87,11%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>79,69%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>85,73%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>83,3%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>87,33%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>92,44%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>87,79%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,75; 22,83</t>
+          <t>71,55; 82,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,85; 30,35</t>
+          <t>77,8; 87,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,91; 28,66</t>
+          <t>72,09; 82,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>85,5; 94,25</t>
+          <t>81,22; 90,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,09; 22,64</t>
+          <t>88,66; 95,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,07; 26,66</t>
+          <t>83,23; 92,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,44; 25,9</t>
+          <t>77,11; 85,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>81,91; 91,3</t>
+          <t>84,69; 91,4</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,88; 20,71</t>
+          <t>84,65; 91,49</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,8; 27,17</t>
+          <t>84,48; 91,59</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>18,53; 25,34</t>
+          <t>87,4; 94,79</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>85,08; 91,47</t>
+          <t>82,54; 91,3</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>76,0; 83,14</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>82,41; 88,35</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>80,2; 86,26</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>84,19; 90,14</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>89,63; 94,75</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>84,01; 90,76</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1505,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>16,04%</t>
+          <t>75,95%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>17,75%</t>
+          <t>79,23%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>18,46%</t>
+          <t>83,13%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>81,81%</t>
+          <t>85,09%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>20,97%</t>
+          <t>89,25%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>17,24%</t>
+          <t>85,3%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>22,7%</t>
+          <t>79,1%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>78,8%</t>
+          <t>83,93%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>18,61%</t>
+          <t>82,27%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>17,49%</t>
+          <t>89,59%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>20,59%</t>
+          <t>83,73%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>80,22%</t>
+          <t>88,75%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>77,59%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>81,66%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>82,7%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>87,39%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>86,32%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>87,07%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,64; 22,87</t>
+          <t>69,59; 81,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,18; 22,81</t>
+          <t>73,11; 84,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,05; 24,74</t>
+          <t>77,88; 88,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>74,93; 87,23</t>
+          <t>77,75; 90,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,15; 27,27</t>
+          <t>84,01; 93,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,77; 23,21</t>
+          <t>79,56; 90,59</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>17,71; 28,16</t>
+          <t>71,64; 84,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>72,41; 84,28</t>
+          <t>77,37; 88,66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>15,17; 23,31</t>
+          <t>76,61; 86,73</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>14,48; 21,37</t>
+          <t>84,49; 93,46</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>16,79; 25,06</t>
+          <t>77,85; 88,58</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>76,04; 84,15</t>
+          <t>83,12; 92,45</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>73,24; 82,03</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>77,39; 85,52</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>78,43; 86,15</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>83,28; 90,75</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>82,07; 89,54</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>83,21; 90,36</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>22,28%</t>
+          <t>76,34%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>18,95%</t>
+          <t>81,66%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>20,25%</t>
+          <t>79,35%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>82,86%</t>
+          <t>89,33%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>20,27%</t>
+          <t>85,41%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>16,88%</t>
+          <t>88,68%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>23,62%</t>
+          <t>72,74%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>77,16%</t>
+          <t>81,12%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>21,12%</t>
+          <t>74,99%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>17,81%</t>
+          <t>81,51%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>22,15%</t>
+          <t>78,55%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>79,56%</t>
+          <t>76,95%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>74,27%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>81,36%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>76,91%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>85,02%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>81,44%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>81,95%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,34; 35,29</t>
+          <t>68,38; 82,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,85; 26,32</t>
+          <t>72,64; 87,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,83; 26,67</t>
+          <t>69,67; 85,52</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>74,83; 88,45</t>
+          <t>81,68; 93,96</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>14,15; 26,69</t>
+          <t>78,53; 91,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,5; 23,42</t>
+          <t>81,75; 93,09</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>15,78; 41,71</t>
+          <t>65,75; 79,07</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>68,8; 85,12</t>
+          <t>75,65; 86,11</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>16,27; 27,5</t>
+          <t>68,64; 80,91</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>14,27; 22,93</t>
+          <t>73,2; 88,17</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>17,1; 32,64</t>
+          <t>68,27; 85,54</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>73,33; 84,82</t>
+          <t>68,85; 83,84</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>68,91; 78,94</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>76,77; 85,35</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>71,64; 80,97</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>79,4; 89,41</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>75,01; 86,04</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>76,49; 86,61</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>15,87%</t>
+          <t>76,35%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>15,67%</t>
+          <t>79,99%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>16,68%</t>
+          <t>78,3%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>79,0%</t>
+          <t>80,79%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>16,34%</t>
+          <t>85,08%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>14,89%</t>
+          <t>84,33%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>18,06%</t>
+          <t>78,29%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>78,02%</t>
+          <t>83,17%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>16,11%</t>
+          <t>80,18%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>15,27%</t>
+          <t>83,0%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>17,4%</t>
+          <t>83,86%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>78,5%</t>
+          <t>80,41%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>77,35%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>81,62%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>79,26%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>81,92%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>84,47%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>82,36%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>13,34; 19,2</t>
+          <t>72,8; 79,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>13,46; 18,39</t>
+          <t>77,72; 82,32</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>14,26; 19,98</t>
+          <t>75,0; 80,62</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>75,87; 82,11</t>
+          <t>77,78; 84,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>14,31; 18,66</t>
+          <t>82,32; 87,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>13,11; 16,94</t>
+          <t>81,21; 86,82</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>15,98; 21,55</t>
+          <t>75,88; 80,69</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>75,14; 80,46</t>
+          <t>81,09; 85,23</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>14,42; 18,4</t>
+          <t>77,98; 82,24</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>13,82; 16,84</t>
+          <t>80,41; 85,21</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>15,53; 19,62</t>
+          <t>81,42; 86,13</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>76,25; 80,42</t>
+          <t>77,61; 82,79</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>75,28; 79,14</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>80,12; 83,32</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>77,46; 80,9</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>80,09; 83,77</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>82,47; 86,09</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>80,37; 84,13</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe apoyo social confidencial bajo (tasa de respuesta: 96,6%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>206.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>213.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>190.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>378980</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>354059</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>319902</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>346353</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>34320</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>34041</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>323161</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>346761</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>355790</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>360420</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>26999</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>24776</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>702141</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>700820</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>675692</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>706774</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>61318</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>58817</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>339070; 410663</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>311603; 391206</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>274865; 364096</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>304178; 379584</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>31372; 36674</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>29725; 36955</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>290060; 359276</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>309747; 378937</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>314933; 390808</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>322367; 391847</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>23946; 29642</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>21136; 27521</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>649450; 743251</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>648285; 752688</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>617143; 731858</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>652189; 752597</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>56689; 64678</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>53979; 63339</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>186.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>247.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>316.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>312.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>225.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>220.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>213.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>404566</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>397551</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>442972</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>404315</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>36505</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>34701</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>408754</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>419386</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>395645</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>389569</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>36311</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>36246</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>813320</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>816937</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>838617</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>793884</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>72816</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>70947</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>340507; 447402</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>361797; 429026</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>402845; 479935</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>356007; 456288</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>30200; 40581</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>28605; 38691</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>375471; 437920</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>391469; 442560</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>362624; 421607</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>352660; 418914</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>33113; 38798</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>32730; 38962</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>746326; 863406</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>771103; 855071</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>788203; 885365</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>728468; 850138</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>65418; 77781</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>64673; 76037</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>218.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>221.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>311.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>248.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>208.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>398.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>518.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>532.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>412.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>372.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>328.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>513041</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>544703</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>539550</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>502310</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>46249</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>51898</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>567444</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>591671</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>583631</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>574929</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>45973</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>43987</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>1080486</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>1136373</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>1123180</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>1077238</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>92221</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>95885</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>454740; 553760</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>516187; 571960</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>510122; 564944</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>441194; 550025</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>43055; 49184</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>48295; 54456</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>532627; 598302</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>565116; 617164</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>553576; 606247</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>546094; 601054</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>43750; 47781</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>40915; 46646</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1012604; 1131756</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>1093981; 1169623</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>1080906; 1158663</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>998051; 1129042</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>87499; 95730</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>91281; 99594</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>192.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>236.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>220.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>203.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>294.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>319.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>263.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>199.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>199.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>435.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>530.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>539.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>466.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>357.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>372.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>477493</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>499696</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>457517</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>531959</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>49632</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>47569</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>543399</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>549980</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>556273</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>557187</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>46337</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>44972</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>1020892</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>1049676</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>1013790</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>1089146</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>95970</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>92542</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>442440; 510087</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>467253; 523633</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>423554; 485953</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>500995; 559591</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>47301; 51211</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>44771; 49660</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>511013; 569735</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>528308; 570183</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>532906; 575937</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>532511; 577325</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>44109; 47843</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>42611; 47134</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>973660; 1065101</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>1008988; 1081732</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>976075; 1049847</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>1049982; 1124166</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>93049; 98373</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>88562; 95677</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>175.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>205.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>197.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>197.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>307.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>372.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>402.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>318.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>303.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>312.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>335102</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>330826</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>385850</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>382860</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>36210</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>35190</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>378861</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>375330</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>385514</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>422961</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>38362</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>38729</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>713963</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>706157</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>771364</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>805820</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>74572</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>73918</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>307032; 358905</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>305291; 353296</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>361501; 408759</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>349861; 405356</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>34083; 38021</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>32823; 37373</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>343141; 403256</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>345964; 396484</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>358974; 406431</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>398900; 441220</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>35667; 40584</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>36271; 40342</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>673956; 754810</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>669264; 739506</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>731510; 803527</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>767939; 836790</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>70896; 77350</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>70634; 76712</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>162.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>288.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>295.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>206.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>349401</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>351753</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>368473</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>426612</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>33035</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>34943</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>450652</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>435033</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>441668</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>477817</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>41663</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>40745</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>800053</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>786786</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>810141</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>904428</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>74698</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>75688</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>312970; 379217</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>312912; 377907</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>323548; 397131</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>390095; 448734</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>30374; 35309</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>32211; 36680</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>407318; 489817</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>405695; 461765</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>404273; 476527</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>429087; 516859</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>36213; 45373</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>36457; 44394</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>742264; 850352</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>742398; 825361</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>754614; 852937</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>844641; 951052</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>68803; 78918</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>70640; 79992</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>826.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>976.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>988.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>795.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>725.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>740.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1010.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1261.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1282.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>1005.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>876.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>867.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>1836.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>2237.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>2270.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>1800.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>1601.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>1607.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>2458583</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>2478588</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>2514263</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>2594409</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>235950</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>238342</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>2672271</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>2718161</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>2718522</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>2782882</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>235645</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>229455</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>5130855</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>5196748</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>5232785</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>5377290</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>471595</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>467797</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2344288; 2559072</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>2408108; 2550692</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>2408272; 2588930</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>2497845; 2697915</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>228283; 243439</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>229530; 245391</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>2589866; 2753899</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>2650117; 2785376</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>2643920; 2788305</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>2696108; 2856926</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>228773; 242007</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>221466; 236256</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>4993440; 5249288</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>5101288; 5305065</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>5113610; 5340860</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>5257372; 5498595</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>460421; 480671</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>456501; 477838</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
